--- a/data/trans_orig/IP22D1_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEC9141-CB70-4DB2-8B46-34C448EB1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8856ADE7-5F06-40BE-AEBC-5E1D2F9843EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9609C76-8AA2-45B2-8E02-F7CA52AA7ED6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB859A1-B6DF-42E1-A7D7-8E409F59C309}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6E439-C38A-4491-97C9-7BCBEDED2923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC62421E-D439-458D-99EB-9129796D53BC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D1_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8856ADE7-5F06-40BE-AEBC-5E1D2F9843EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAA88C89-9E3D-44F3-BF1F-FB7C11326E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB859A1-B6DF-42E1-A7D7-8E409F59C309}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8F8CECDF-7BDF-45DE-9416-80C57049873D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,52 +68,52 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>95,75%</t>
+  </si>
+  <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
   </si>
   <si>
     <t>98,5%</t>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC62421E-D439-458D-99EB-9129796D53BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3923A1-D710-4C8F-AE9C-E5BC4C2AC3FC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -649,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>5129</v>
+        <v>8192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -664,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -700,25 +700,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
       <c r="I5" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -753,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>34869</v>
+        <v>30211</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -768,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -786,7 +786,7 @@
         <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -804,25 +804,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>46</v>
       </c>
-      <c r="D7" s="7">
-        <v>34869</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>44</v>
-      </c>
       <c r="I7" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -857,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>9418</v>
+        <v>9763</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -872,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -890,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -908,25 +908,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>14</v>
-      </c>
       <c r="I9" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="N9" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>49417</v>
+        <v>48166</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -976,10 +976,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -994,7 +994,7 @@
         <v>127</v>
       </c>
       <c r="N10" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1012,25 +1012,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>64</v>
       </c>
-      <c r="D11" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>63</v>
-      </c>
       <c r="I11" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1045,7 +1045,7 @@
         <v>127</v>
       </c>
       <c r="N11" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
